--- a/Excel Lab Data/Data Set 4- Pivot Table/PivotTable Live System Demo to Analyze Inventory .xlsx
+++ b/Excel Lab Data/Data Set 4- Pivot Table/PivotTable Live System Demo to Analyze Inventory .xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jothi\Jothi\UCD\Data Analytics With Excel\Lab\Sample Data\Data Set 4- Pivot Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sumathy\DataAnalyticsTraining\Excel Lab Data\Data Set 4- Pivot Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C66A6CF-C88C-40D4-8504-D9D60A9F23B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62D716-1A03-42DA-800B-6FF5CC441911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F55988ED-6015-42A3-961D-88F8F9414FC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F55988ED-6015-42A3-961D-88F8F9414FC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
   <si>
     <t>Make</t>
   </si>
@@ -134,6 +138,15 @@
   </si>
   <si>
     <t>Charger</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
   </si>
 </sst>
 </file>
@@ -141,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -208,13 +221,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +256,437 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="udhaya prasath" refreshedDate="45247.638554861114" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="24" xr:uid="{FD91F3BB-5014-40C1-984F-48A66D3EA3AC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F25" sheet="Inventory"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Make" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Honda"/>
+        <s v="Toyota"/>
+        <s v="Nissan"/>
+        <s v="Ford"/>
+        <s v="Chevrolet"/>
+        <s v="Dodge"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems count="15">
+        <s v="Accord"/>
+        <s v="Camry"/>
+        <s v="Altima"/>
+        <s v="Corolla"/>
+        <s v="Civic"/>
+        <s v="F-150"/>
+        <s v="Silverado"/>
+        <s v="Impala"/>
+        <s v="Malibu"/>
+        <s v="Escape"/>
+        <s v="Mustang"/>
+        <s v="CRV"/>
+        <s v="Maxima"/>
+        <s v="Fusion"/>
+        <s v="Charger"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Color" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Red"/>
+        <s v="Blue"/>
+        <s v="Silver"/>
+        <s v="Black"/>
+        <s v="Green"/>
+        <s v="White"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mileage" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="34853" maxValue="140811"/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="4959"/>
+    </cacheField>
+    <cacheField name="Cost" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1500" maxValue="4500"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="63512"/>
+    <n v="4000"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="95135"/>
+    <n v="2500"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="101354"/>
+    <n v="2000"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="75006"/>
+    <n v="2198"/>
+    <n v="1900"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="69847"/>
+    <n v="3826"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="55233"/>
+    <n v="2970"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="87278"/>
+    <n v="2224"/>
+    <n v="2100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="130684"/>
+    <n v="2798"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="59169"/>
+    <n v="2160"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="138789"/>
+    <n v="2723"/>
+    <n v="1900"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="89073"/>
+    <n v="3950"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="109231"/>
+    <n v="4959"/>
+    <n v="4500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="87675"/>
+    <n v="3791"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="140811"/>
+    <n v="2340"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="139300"/>
+    <n v="3361"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="63259"/>
+    <n v="3196"/>
+    <n v="3050"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="40826"/>
+    <n v="4397"/>
+    <n v="3900"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="41560"/>
+    <n v="3706"/>
+    <n v="3100"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="49326"/>
+    <n v="4745"/>
+    <n v="4100"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="101856"/>
+    <n v="2914"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="42542"/>
+    <n v="2659"/>
+    <n v="2100"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="34853"/>
+    <n v="4349"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="58173"/>
+    <n v="4252"/>
+    <n v="4000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="136775"/>
+    <n v="2090"/>
+    <n v="1800"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D141F3F-2D71-4563-82FE-F481CD27D2C4}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item sd="0" x="7"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="32">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,19 +985,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34399DD0-D6C1-4E72-A492-0186DD0A3C95}">
+  <dimension ref="A3:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8">
+        <v>14451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8">
+        <v>17908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
+        <v>15968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="8">
+        <v>9710</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="8">
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>78108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3069986C-BB5A-4CC4-A692-D56A32BDD208}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.83984375" style="2"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -564,7 +1303,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,7 +1325,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,7 +1347,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,7 +1369,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -652,7 +1391,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +1413,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -696,7 +1435,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,7 +1457,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +1479,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +1501,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,7 +1523,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -806,7 +1545,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -828,7 +1567,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,7 +1589,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -872,7 +1611,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -894,7 +1633,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -916,7 +1655,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -938,7 +1677,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -960,7 +1699,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -982,7 +1721,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1743,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1765,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1048,7 +1787,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1070,7 +1809,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1092,7 +1831,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
